--- a/Data/EnergyModule.xlsx
+++ b/Data/EnergyModule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\Scripts\WHATIF_HESS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="10_ncr:100000_{C34CA32F-3B9A-408C-9BEF-46BBAC397993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{19257C07-3474-4078-9C43-B3A0BF588795}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="10_ncr:100000_{C34CA32F-3B9A-408C-9BEF-46BBAC397993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7D9AEFAB-7BE6-46F3-927E-9D13F00747A6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16610" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16610" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -9366,8 +9366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -10644,11 +10644,11 @@
         <v>837</v>
       </c>
       <c r="N36" s="180">
-        <f>M36*F36/1000</f>
+        <f t="shared" ref="N36:N44" si="3">M36*F36/1000</f>
         <v>53.567999999999998</v>
       </c>
       <c r="O36" s="180">
-        <f>F36*8.72/1000</f>
+        <f t="shared" ref="O36:O44" si="4">F36*8.72/1000</f>
         <v>0.55808000000000002</v>
       </c>
       <c r="Q36" s="97"/>
@@ -10690,11 +10690,11 @@
         <v>1746</v>
       </c>
       <c r="N37" s="180">
-        <f>M37*F37/1000</f>
+        <f t="shared" si="3"/>
         <v>419.04</v>
       </c>
       <c r="O37" s="180">
-        <f>F37*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>2.0928</v>
       </c>
       <c r="Q37" s="97"/>
@@ -10736,11 +10736,11 @@
         <v>1340</v>
       </c>
       <c r="N38" s="180">
-        <f>M38*F38/1000</f>
+        <f t="shared" si="3"/>
         <v>455.6</v>
       </c>
       <c r="O38" s="180">
-        <f>F38*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>2.9648000000000003</v>
       </c>
       <c r="Q38" s="97"/>
@@ -10782,11 +10782,11 @@
         <v>972</v>
       </c>
       <c r="N39" s="180">
-        <f>M39*F39/1000</f>
+        <f t="shared" si="3"/>
         <v>826.2</v>
       </c>
       <c r="O39" s="180">
-        <f>F39*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>7.4120000000000008</v>
       </c>
       <c r="Q39" s="97"/>
@@ -10828,11 +10828,11 @@
         <v>1648</v>
       </c>
       <c r="N40" s="180">
-        <f>M40*F40/1000</f>
+        <f t="shared" si="3"/>
         <v>2142.4</v>
       </c>
       <c r="O40" s="180">
-        <f>F40*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>11.336</v>
       </c>
       <c r="Q40" s="97"/>
@@ -10874,11 +10874,11 @@
         <v>2493</v>
       </c>
       <c r="N41" s="180">
-        <f>M41*F41/1000</f>
+        <f t="shared" si="3"/>
         <v>553.44600000000003</v>
       </c>
       <c r="O41" s="180">
-        <f>F41*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>1.9358400000000002</v>
       </c>
       <c r="Q41" s="97"/>
@@ -10920,11 +10920,11 @@
         <v>2679</v>
       </c>
       <c r="N42" s="180">
-        <f>M42*F42/1000</f>
+        <f t="shared" si="3"/>
         <v>2143.1999999999998</v>
       </c>
       <c r="O42" s="180">
-        <f>F42*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>6.9760000000000009</v>
       </c>
       <c r="Q42" s="97"/>
@@ -10966,11 +10966,11 @@
         <v>3375</v>
       </c>
       <c r="N43" s="180">
-        <f>M43*F43/1000</f>
+        <f t="shared" si="3"/>
         <v>2700</v>
       </c>
       <c r="O43" s="180">
-        <f>F43*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>6.9760000000000009</v>
       </c>
       <c r="Q43" s="97"/>
@@ -11012,11 +11012,11 @@
         <v>2143</v>
       </c>
       <c r="N44" s="180">
-        <f>M44*F44/1000</f>
+        <f t="shared" si="3"/>
         <v>1607.25</v>
       </c>
       <c r="O44" s="180">
-        <f>F44*8.72/1000</f>
+        <f t="shared" si="4"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="Q44" s="97"/>
@@ -11033,8 +11033,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="11">
-        <f>(990+150)*24/1000</f>
-        <v>27.36</v>
+        <v>0.95</v>
       </c>
       <c r="F45" s="53">
         <v>1140</v>

--- a/Data/EnergyModule.xlsx
+++ b/Data/EnergyModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rapy\OneDrive - COWI\Scripts\WHATIF_HESS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="10_ncr:100000_{C34CA32F-3B9A-408C-9BEF-46BBAC397993}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7D9AEFAB-7BE6-46F3-927E-9D13F00747A6}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="10_ncr:100000_{C34CA32F-3B9A-408C-9BEF-46BBAC397993}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9801B729-2464-4404-B774-4F876AEBB3AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16610" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="9" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -9366,8 +9367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -9566,36 +9567,36 @@
         <v>358</v>
       </c>
       <c r="F9" s="41">
-        <f t="shared" ref="F9:K9" si="0">F8/(F7*3.6)</f>
+        <f>F8/(F7*3.6)</f>
         <v>0.21212121212121213</v>
       </c>
       <c r="G9" s="41">
-        <f t="shared" si="0"/>
+        <f>G8/(G7*3.6)</f>
         <v>0.94827586206896552</v>
       </c>
       <c r="H9" s="41">
-        <f t="shared" si="0"/>
+        <f>H8/(H7*3.6)</f>
         <v>0.22471301711067793</v>
       </c>
       <c r="I9" s="41">
-        <f t="shared" si="0"/>
+        <f>I8/(I7*3.6)</f>
         <v>0.14001806684733514</v>
       </c>
       <c r="J9" s="41">
-        <f t="shared" si="0"/>
+        <f>J8/(J7*3.6)</f>
         <v>0.16025641025641024</v>
       </c>
       <c r="K9" s="41">
-        <f t="shared" si="0"/>
+        <f>K8/(K7*3.6)</f>
         <v>0.2653399668325041</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="41">
-        <f t="shared" ref="M9:N9" si="1">M8/(M7*3.6)</f>
+        <f>M8/(M7*3.6)</f>
         <v>0.22413793103448276</v>
       </c>
       <c r="N9" s="41">
-        <f t="shared" si="1"/>
+        <f>N8/(N7*3.6)</f>
         <v>0.40004000400040007</v>
       </c>
       <c r="O9" s="35"/>
@@ -9727,19 +9728,19 @@
         <v>0.10683760683760683</v>
       </c>
       <c r="G13" s="41">
-        <f t="shared" ref="G13:J13" si="2">G12/(G11*3.6)</f>
+        <f>G12/(G11*3.6)</f>
         <v>0.14756944444444445</v>
       </c>
       <c r="H13" s="41">
-        <f t="shared" si="2"/>
+        <f>H12/(H11*3.6)</f>
         <v>0.25566293398783047</v>
       </c>
       <c r="I13" s="41">
-        <f t="shared" si="2"/>
+        <f>I12/(I11*3.6)</f>
         <v>3.742690058479532</v>
       </c>
       <c r="J13" s="41">
-        <f t="shared" si="2"/>
+        <f>J12/(J11*3.6)</f>
         <v>0.20094562647754136</v>
       </c>
       <c r="K13" s="14">
@@ -10644,11 +10645,11 @@
         <v>837</v>
       </c>
       <c r="N36" s="180">
-        <f t="shared" ref="N36:N44" si="3">M36*F36/1000</f>
+        <f t="shared" ref="N36:N44" si="0">M36*F36/1000</f>
         <v>53.567999999999998</v>
       </c>
       <c r="O36" s="180">
-        <f t="shared" ref="O36:O44" si="4">F36*8.72/1000</f>
+        <f t="shared" ref="O36:O44" si="1">F36*8.72/1000</f>
         <v>0.55808000000000002</v>
       </c>
       <c r="Q36" s="97"/>
@@ -10690,11 +10691,11 @@
         <v>1746</v>
       </c>
       <c r="N37" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>419.04</v>
       </c>
       <c r="O37" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.0928</v>
       </c>
       <c r="Q37" s="97"/>
@@ -10736,11 +10737,11 @@
         <v>1340</v>
       </c>
       <c r="N38" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>455.6</v>
       </c>
       <c r="O38" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.9648000000000003</v>
       </c>
       <c r="Q38" s="97"/>
@@ -10782,11 +10783,11 @@
         <v>972</v>
       </c>
       <c r="N39" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>826.2</v>
       </c>
       <c r="O39" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7.4120000000000008</v>
       </c>
       <c r="Q39" s="97"/>
@@ -10828,11 +10829,11 @@
         <v>1648</v>
       </c>
       <c r="N40" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2142.4</v>
       </c>
       <c r="O40" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11.336</v>
       </c>
       <c r="Q40" s="97"/>
@@ -10874,11 +10875,11 @@
         <v>2493</v>
       </c>
       <c r="N41" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>553.44600000000003</v>
       </c>
       <c r="O41" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.9358400000000002</v>
       </c>
       <c r="Q41" s="97"/>
@@ -10920,11 +10921,11 @@
         <v>2679</v>
       </c>
       <c r="N42" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2143.1999999999998</v>
       </c>
       <c r="O42" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.9760000000000009</v>
       </c>
       <c r="Q42" s="97"/>
@@ -10966,11 +10967,11 @@
         <v>3375</v>
       </c>
       <c r="N43" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2700</v>
       </c>
       <c r="O43" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.9760000000000009</v>
       </c>
       <c r="Q43" s="97"/>
@@ -11012,11 +11013,11 @@
         <v>2143</v>
       </c>
       <c r="N44" s="180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>1607.25</v>
       </c>
       <c r="O44" s="180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="Q44" s="97"/>
